--- a/Table3.xlsx
+++ b/Table3.xlsx
@@ -1020,7 +1020,7 @@
   <dimension ref="B2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,19 +1208,31 @@
       <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4">
+        <v>8</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7</v>
+      </c>
       <c r="J8" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K8" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.333333333333334</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
